--- a/medicine/Psychotrope/Vignoble_des_Agaises/Vignoble_des_Agaises.xlsx
+++ b/medicine/Psychotrope/Vignoble_des_Agaises/Vignoble_des_Agaises.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vignoble des Agaises est un domaine viticole wallon situé dans la commune d'Estinnes, à Haulchin, en Belgique. Il est connu sous le nom de sa marque Ruffus.
-Avec plus de 35 hectares[1], le vignoble des Agaises est le plus grand producteur de vin en Belgique. Quatre cuvées y sont produites[2] : Ruffus Brut, Ruffus Brut Sauvage, Ruffus Rosé Brut et Ruffus Grand Millésime.
+Avec plus de 35 hectares, le vignoble des Agaises est le plus grand producteur de vin en Belgique. Quatre cuvées y sont produites : Ruffus Brut, Ruffus Brut Sauvage, Ruffus Rosé Brut et Ruffus Grand Millésime.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1980 et 1990, Raymond Leroy tient un commerce d'importation de vins et liqueurs en Belgique que sa famille tient depuis quatre générations. En 2001, il rencontre Etienne Delbeke, ancien président de la Filière wallonne de la pomme de terre, et les deux hommes décident de se lancer dans la production de vin. Ils invitent Thierry Gobillard, un producteur champenois, à les rejoindre dans cette démarche. La société est créée et les premiers pieds de vigne sont plantés en mars 2002 sur une surface de deux hectares. Les trois hommes sont rejoints par Michel Wanty (oncle de la femme de Raymond Leroy) et Joël Hugé (un ami). Dès l'année suivante, deux hectares sont ajoutés à la plantation. Le premier millésime sort en 2005 et gagne une médaille d'argent au Concours mondial de Bruxelles. L'équipe se lance alors dans l'acquisition progressive des terres avoisinant leur vignoble pour faire croître leurs opérations[3].
-L'appellation Crémant de Wallonie est créée en mars 2008[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1980 et 1990, Raymond Leroy tient un commerce d'importation de vins et liqueurs en Belgique que sa famille tient depuis quatre générations. En 2001, il rencontre Etienne Delbeke, ancien président de la Filière wallonne de la pomme de terre, et les deux hommes décident de se lancer dans la production de vin. Ils invitent Thierry Gobillard, un producteur champenois, à les rejoindre dans cette démarche. La société est créée et les premiers pieds de vigne sont plantés en mars 2002 sur une surface de deux hectares. Les trois hommes sont rejoints par Michel Wanty (oncle de la femme de Raymond Leroy) et Joël Hugé (un ami). Dès l'année suivante, deux hectares sont ajoutés à la plantation. Le premier millésime sort en 2005 et gagne une médaille d'argent au Concours mondial de Bruxelles. L'équipe se lance alors dans l'acquisition progressive des terres avoisinant leur vignoble pour faire croître leurs opérations.
+L'appellation Crémant de Wallonie est créée en mars 2008.
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La société, créée en 2002, produit ses cuvées Ruffus (nom attribué en référence au Seigneur Ruffus d’Estinne et de Bray) selon la méthode dite traditionnelle ou champenoise. 
-Le vignoble de 2 hectares à l'origine est de 35 ha en 2022, il a la particularité d'être implanté sur un sol calcaire contenant de la craie, à l'instar des coteaux servant à la production de vin de Champagne[3].
+Le vignoble de 2 hectares à l'origine est de 35 ha en 2022, il a la particularité d'être implanté sur un sol calcaire contenant de la craie, à l'instar des coteaux servant à la production de vin de Champagne.
 Les vignes bénéficient d'une exposition plein sud permettant un ensoleillement maximum, à une altitude de 100 m. Elles se situent au pied du plus grand parc éolien d'Europe, les terrains sont bien ventilés et les vignes ont moins de maladies cryptogamiques.
-En 2021, le vignoble comptait 310 000 pieds de vigne[4].
+En 2021, le vignoble comptait 310 000 pieds de vigne.
 </t>
         </is>
       </c>
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,7 +651,9 @@
           <t>Cuvées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruffus Brut (75 cL - 12,5 %vol. - 6g/L de sucre) :
 Vin effervescent issu à 100% de Chardonnay (dénomination «Blanc de Blancs»), élaboré selon la méthode traditionnelle avec une seconde fermentation en bouteille et un vieillissement sur latte de minimum 15 mois.
